--- a/DLA LAAT.xlsx
+++ b/DLA LAAT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeye\OneDrive\Desktop\contract_accounting_treatment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeye\OneDrive\Desktop\leases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0193CDEC-FFDA-4E6A-A221-997B14D5D7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9B1397-5664-4B2A-AAA9-08DD5CA5E51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C9F97EE2-FEB7-4B5C-A2F4-D45134EFB041}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
         <v>25</v>
       </c>
       <c r="H2">
-        <v>6.5</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="H3">
-        <v>8.75</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
@@ -627,7 +627,7 @@
         <v>28</v>
       </c>
       <c r="H4">
-        <v>3.2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
@@ -656,7 +656,7 @@
         <v>27</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
